--- a/DOM_Banner/output/dept_banner/Arka Chatterjee_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Arka Chatterjee_2022.xlsx
@@ -1777,8 +1777,10 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>list(au_id = c("https://openalex.org/A5021128867", "https://openalex.org/A5044550955", "https://openalex.org/A5004817264", "https://openalex.org/A5055127691"), au_display_name = c("Rahul Raiker", "Haig Pakhchanian", "Shanawar Waris", "Arka Chatterjee"), au_orcid = c("https://orcid.org/0000-0003-0636-3235", "https://orcid.org/0000-0002-8790-9991", NA, "https://orcid.org/0009-0002-6997-1940"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", ""), institution_id = c(NA, 
-NA, NA, NA), institution_display_name = c(NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA))</t>
+          <t>list(au_id = c("https://openalex.org/A5021128867", "https://openalex.org/A5044550955", "https://openalex.org/A5004817264", "https://openalex.org/A5055127691"), au_display_name = c("Rahul Raiker", "Haig Pakhchanian", "Shanawar Waris", "Arka Chatterjee"), au_orcid = c("https://orcid.org/0000-0003-0636-3235", "https://orcid.org/0000-0002-8790-9991", NA, "https://orcid.org/0009-0002-6997-1940"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA", 
+"University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA", "University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA", "University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA"), institution_id = c("https://openalex.org/I12097938", "https://openalex.org/I12097938", "https://openalex.org/I12097938", 
+"https://openalex.org/I12097938"), institution_display_name = c("West Virginia University", "West Virginia University", "West Virginia University", "West Virginia University"), institution_ror = c("https://ror.org/011vxgd24", "https://ror.org/011vxgd24", "https://ror.org/011vxgd24", "https://ror.org/011vxgd24"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I12097938", "https://openalex.org/I12097938", 
+"https://openalex.org/I12097938", "https://openalex.org/I12097938"))</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1923,7 +1925,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2935909890", "https://openalex.org/W4387497383", "https://openalex.org/W2948807893", "https://openalex.org/W2778153218", "https://openalex.org/W2758277628", "https://openalex.org/W1531601525", "https://openalex.org/W3110381201", "https://openalex.org/W3173606202", "https://openalex.org/W3183948672", "https://openalex.org/W1966504330")</t>
+          <t>c("https://openalex.org/W2935909890", "https://openalex.org/W4387497383", "https://openalex.org/W2758277628", "https://openalex.org/W2948807893", "https://openalex.org/W2778153218", "https://openalex.org/W1531601525", "https://openalex.org/W3173606202", "https://openalex.org/W3110381201", "https://openalex.org/W3183948672", "https://openalex.org/W1966504330")</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2478,7 +2480,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>list(au_id = c("https://openalex.org/A5001737701", "https://openalex.org/A5036812855", "https://openalex.org/A5055127691", "https://openalex.org/A5024902025", "https://openalex.org/A5065689533"), au_display_name = c("Arghajit Jana", "Hsiang-Kuang Chang", "Arka Chatterjee", "Sachindra Naik", "Samar Safi‐Harb"), au_orcid = c("https://orcid.org/0000-0001-7500-5752", "https://orcid.org/0000-0002-5617-3117", "https://orcid.org/0009-0002-6997-1940", "https://orcid.org/0000-0003-2865-4666", "https://orcid.org/0000-0001-6189-7665"
+          <t>list(au_id = c("https://openalex.org/A5001737701", "https://openalex.org/A5036812855", "https://openalex.org/A5055127691", "https://openalex.org/A5024902025", "https://openalex.org/A5065689533"), au_display_name = c("Arghajit Jana", "Hsiang-Kuang Chang", "Arka Chatterjee", "Sachindra Naik", "Samar Safí-Harb"), au_orcid = c("https://orcid.org/0000-0001-7500-5752", "https://orcid.org/0000-0002-5617-3117", "https://orcid.org/0009-0002-6997-1940", "https://orcid.org/0000-0003-2865-4666", "https://orcid.org/0000-0001-6189-7665"
 ), author_position = c("first", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA))</t>
         </is>
       </c>

--- a/DOM_Banner/output/dept_banner/Arka Chatterjee_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Arka Chatterjee_2022.xlsx
@@ -1344,7 +1344,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Arghajit Jana, Hsiang-Kuang Chang, Arka Chatterjee, Sachindra Naik, Samar Safí-Harb</t>
+          <t>Arghajit Jana, Hsiang-Kuang Chang, Arka Chatterjee, Sachindra Naik, Samar Safi‐Harb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Arka Chatterjee_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Arka Chatterjee_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Epidemiology, University of Alabama at Birmingham School of Public Health, Birmingham, Alabama, USA; Department of Epidemiology, University of Alabama at Birmingham School of Public Health, Birmingham, Alabama, USA; Department of Epidemiology, University of Alabama at Birmingham School of Public Health, Birmingham, Alabama, USA; Division of Cardiovascular Disease, University of Alabama at Birmingham School of Medicine, Birmingham, Alabama, USA; Department of Medicine, University of Arizona Health Sciences, Sarver Heart Center, Tucson, Arizona, USA; Department of Hematology and Oncology, University of Alabama at Birmingham School of Medicine, Birmingham, Alabama, USA; Department of Epidemiology, University of Alabama at Birmingham School of Public Health, Birmingham, Alabama, USA; Department of Epidemiology, University of Alabama at Birmingham School of Public Health, Birmingham, Alabama, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223420850</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Racial and rural–urban disparities in cardiovascular risk factors among patients with head and neck cancer in a clinical cohort</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-04-09</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Head &amp; Neck</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/hed.27054</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35396877</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/hed.27054</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Cardiovascular Diseases, University of Arizona, 1625 N Campbell Avenue, Tucson, AZ, 85719, USA.; Southeast Iowa Regional Medical Center, West Burlington, IA, USA.; Division of Cardiovascular Diseases, University of Arizona, Tucson, USA; Division of Cardiovascular Diseases, University of Arizona, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307340894</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Persistent or Recurrent Angina Following Percutaneous Coronary Revascularization</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-10-26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Current Cardiology Reports</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11886-022-01820-3</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36287295</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11886-022-01820-3</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Section of Cardiology, Department of Internal Medicine, Banner University Medical Center, Sarver Heart Center, 1501 North Campbell Avenue, Tucson, AZ 85724, USA; Section of Cardiology, Department of Internal Medicine, Banner University Medical Center, Sarver Heart Center, 1501 North Campbell Avenue, Tucson, AZ 85724, USA; Section of Cardiology, Department of Internal Medicine, Banner University Medical Center, Sarver Heart Center, 1501 North Campbell Avenue, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282840857</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Percutaneous Large Thrombus and Vegetation Evacuation in the Catheterization Laboratory</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Interventional Cardiology Clinics</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.iccl.2022.03.007</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35710288</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.iccl.2022.03.007</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220789884</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>3-YEAR OUTCOMES OF TRANSCATHETER AORTIC VALVE REPLACEMENT IN OBESE PATIENTS: A MULTICENTER ANALYSIS</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01712-0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01712-0</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>George Washington University SMHS, Washington, DC, USA; George Washington University SMHS, Washington, DC, USA; George Washington University SMHS, Washington, DC, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220796205</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>3-YEAR OUTCOMES OF TRANSCATHETER AORTIC VALVE REPLACEMENT IN SMOKERS AND NICOTINE DEPENDENT POPULATIONS: INSIGHTS FROM A LARGE ELECTRONIC HEALTH RECORD DATABASE</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01684-9</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01684-9</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220858858</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>EVALUATING HYPERTENSION-RELATED CONTENT ON TIKTOK: A SOCIAL MEDIA ANALYSIS</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)02569-4</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)02569-4</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220933680</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>ASSESSING 3 YEAR OUTCOMES IN PATIENT NEEDING PERCUTANEOUS CORONARY INTERVENTIONS PRIOR TO TRANSCATHETER AORTIC VALVE REPLACEMENT: INSIGHTS FROM A MULTICENTER DATABASE</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01705-3</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01705-3</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA; University of Arizona College of Medicine, Tucson, AZ, USA; West Virginia University School of Medicine, Morgantown, WV, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221073828</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>EXAMINING 3-YEAR OUTCOMES IN PATIENTS WITH OBSTRUCTIVE SLEEP APNEA WHO UNDERWENT TRANSCATHETER AORTIC VALVE REPLACEMENT</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01777-6</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01777-6</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>George Washington University SMHS, Washington, DC, USA; George Washington University SMHS, Washington, DC, USA; George Washington University SMHS, Washington, DC, USA; George Washington University SMHS, Washington, DC, USA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221133170</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>3-YEAR OUTCOMES OF TRANSCATHETER AORTIC VALVE REPLACE IN DIABETIC PATIENTS: RESULTS FROM A LARGE NATIONAL EHR DATABASE</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01722-3</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)01722-3</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4221138177</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>SUB-ACUTE THROMBOSIS OF MECHANICAL MITRAL PROSTHESIS SUCCESSFULLY TREATED WITH SLOW THROMBOLYSIS IN A PATIENT WITH NONBACTERIAL THROMBOTIC ENDOCARDITIS</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)04207-3</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(22)04207-3</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Pulmonary Critical Care Department, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; Pulmonary Critical Care Medicine, Banner University Medical Center - Phoenix, Phoenix, AZ, United States; University of Arizona Hospital, Tucson, AZ, United States; Internal Medicine, University of Arizona, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Cardiology, Banner University Medical Center - Tucson, Tucson, AZ, United States; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225320154</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>To Drain or Not to Drain: Hemodynamic Characterization of Tamponade in PAH</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4479</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,76 +1409,81 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4289785351</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Broadband X-ray Spectroscopy and Estimation of Spin of the Galactic
   Black Hole Candidate GRS 1758-258</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-08-02</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2208.01399</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2208.01399</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1432,75 +1497,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Department of Surgery, Banner University Medical Center-Tucson/University of Arizona, Tucson, Ariz; Department of Epidemiology and Biostatistics, Mel and Enid Zuckerman College of Public Health, The University of Arizona, Tucson, Ariz; Department of Surgery, Banner University Medical Center-Tucson/University of Arizona, Tucson, Ariz; Division of Cardiology, Department of Medicine, Sarver Heart Center, Banner University Medical Center-Tucson/University of Arizona, Tucson, Ariz; Division of Cardiology, Department of Medicine, Sarver Heart Center, Banner University Medical Center-Tucson/University of Arizona, Tucson, Ariz; Division of Cardiology, Department of Medicine, Sarver Heart Center, Banner University Medical Center-Tucson/University of Arizona, Tucson, Ariz; Division of Cardiology, Department of Medicine, Sarver Heart Center, Banner University Medical Center-Tucson/University of Arizona, Tucson, Ariz; Department of Surgery, Banner University Medical Center-Tucson/University of Arizona, Tucson, Ariz</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4292411924</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Five-meter walk test before transcatheter aortic valve replacement and 1-year noncardiac mortality</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>JTCVS Open</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.xjon.2022.08.003</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36590743</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.xjon.2022.08.003</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1514,75 +1584,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294969864</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Improving Maintenance Productivity Through Proper Planning: Wrench Time Analysis in an Engineering Workshop of an Integrated Steel Plant</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-09-09</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Lecture notes in mechanical engineering</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-981-19-2188-9_88</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-981-19-2188-9_88</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -1596,75 +1671,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Department of Pediatric Surgery, SMS Medical College and SPINCH, Jaipur, Rajasthan, India; Department of Pediatric Surgery, SMS Medical College and SPINCH, Jaipur, Rajasthan, India; Department of Pediatric Surgery, SMS Medical College and SPINCH, Jaipur, Rajasthan, India; Department of Pediatric Surgery, SMS Medical College and SPINCH, Jaipur, Rajasthan, India</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361016351</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Spontaneous in vivo knotting of tubes and catheters—An unintentional surgeon’s knot</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>D Y Patil Journal of Health Sciences</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Medknow</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.4103/dypj.dypj_57_22</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.4103/dypj.dypj_57_22</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
